--- a/cypress/fixtures/PatientData.xlsx
+++ b/cypress/fixtures/PatientData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="115">
   <si>
     <t>First Name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>rizwikhattak123321@gmail.com</t>
-  </si>
-  <si>
     <t>Kamran Shahid</t>
   </si>
   <si>
@@ -144,15 +141,9 @@
     <t>English</t>
   </si>
   <si>
-    <t>Chamara</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
-    <t>Non-Binary</t>
-  </si>
-  <si>
     <t>Assigned User ID</t>
   </si>
   <si>
@@ -343,6 +334,36 @@
   </si>
   <si>
     <t>two.jpg</t>
+  </si>
+  <si>
+    <t>Muhammad</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Naveen M</t>
+  </si>
+  <si>
+    <t>rizwikhatta11@gmail.com</t>
+  </si>
+  <si>
+    <t>rizwikhattak121@gmail.com</t>
+  </si>
+  <si>
+    <t>rizwikhattak100@gmail.com</t>
+  </si>
+  <si>
+    <t>rizwikhattak123@gmail.com</t>
+  </si>
+  <si>
+    <t>rizwikhattak1221@gmail.com</t>
+  </si>
+  <si>
+    <t>rizwikhattak3321@gmail.com</t>
+  </si>
+  <si>
+    <t>rizwikhattak1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -704,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,16 +764,16 @@
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -770,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -824,25 +845,25 @@
         <v>24</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="AG1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>18</v>
@@ -859,43 +880,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="P2" s="3">
         <v>123456789</v>
@@ -907,58 +928,58 @@
         <v>650000</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="U2" s="3">
         <v>1546474787</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="X2" s="3">
         <v>1546474780</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="AF2" s="3">
         <v>46000</v>
       </c>
       <c r="AG2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="AI2" s="3">
         <v>1523424535</v>
       </c>
       <c r="AJ2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -966,43 +987,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="P3" s="3">
         <v>123456789</v>
@@ -1014,102 +1035,102 @@
         <v>650000</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="U3" s="3">
         <v>1546474787</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="X3" s="3">
         <v>1546474780</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="AE3" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF3" s="3">
         <v>45000</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AI3" s="3">
         <v>1523424535</v>
       </c>
       <c r="AJ3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="P4" s="3">
         <v>123456789</v>
@@ -1121,102 +1142,102 @@
         <v>650000</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="U4" s="3">
         <v>1546474787</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="X4" s="3">
         <v>1546474780</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF4" s="3">
         <v>45000</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI4" s="3">
         <v>1523424535</v>
       </c>
       <c r="AJ4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="P5" s="3">
         <v>123456789</v>
@@ -1228,102 +1249,102 @@
         <v>650000</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="U5" s="3">
         <v>1546474787</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="X5" s="3">
         <v>1546474780</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF5" s="3">
         <v>45000</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI5" s="3">
         <v>1523424535</v>
       </c>
       <c r="AJ5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:37" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="P6" s="3">
         <v>123456789</v>
@@ -1335,99 +1356,99 @@
         <v>650000</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="U6" s="3">
         <v>1546474787</v>
       </c>
       <c r="V6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="X6" s="3">
         <v>1546474780</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF6" s="3">
         <v>45000</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI6" s="3">
         <v>1523424535</v>
       </c>
       <c r="AJ6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="P7" s="3">
         <v>123456789</v>
@@ -1439,58 +1460,58 @@
         <v>650000</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="U7" s="3">
         <v>1546474787</v>
       </c>
       <c r="V7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="X7" s="3">
         <v>1546474780</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="AB7" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF7" s="3">
         <v>45000</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI7" s="3">
         <v>1523424535</v>
       </c>
       <c r="AJ7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1498,40 +1519,40 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="P8" s="3">
         <v>123456789</v>
@@ -1543,58 +1564,58 @@
         <v>650000</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="U8" s="3">
         <v>1546474787</v>
       </c>
       <c r="V8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="X8" s="3">
         <v>1546474780</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF8" s="3">
         <v>45000</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI8" s="3">
         <v>1523424535</v>
       </c>
       <c r="AJ8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1602,40 +1623,40 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="P9" s="3">
         <v>123456789</v>
@@ -1647,62 +1668,163 @@
         <v>650000</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="U9" s="3">
         <v>1546474787</v>
       </c>
       <c r="V9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="X9" s="3">
         <v>1546474780</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF9" s="3">
         <v>45000</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AH9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI9" s="3">
         <v>1523424535</v>
       </c>
       <c r="AJ9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AK9" s="3" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
+    <row r="10" spans="1:37" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
+        <v>650000</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1546474787</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1546474780</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>45000</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>1523424535</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F11" s="6"/>
@@ -1725,8 +1847,10 @@
     <hyperlink ref="AH8" r:id="rId14"/>
     <hyperlink ref="T9" r:id="rId15"/>
     <hyperlink ref="AH9" r:id="rId16"/>
+    <hyperlink ref="T10" r:id="rId17"/>
+    <hyperlink ref="AH10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>